--- a/public/hello.xlsx
+++ b/public/hello.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>coldata</t>
+    <t>[1,2,3,[1,2,{"current_page":1,"data":[{"id":1,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"101","name":null,"width":null,"length":null,"benches":null,"seats":100,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":2,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"102","name":null,"width":null,"length":null,"benches":null,"seats":35,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":3,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"103","name":null,"width":null,"length":null,"benches":null,"seats":25,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":4,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"104","name":null,"width":null,"length":null,"benches":null,"seats":75,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":5,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"105","name":null,"width":null,"length":null,"benches":null,"seats":60,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":6,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"106","name":null,"width":null,"length":null,"benches":null,"seats":40,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":7,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"107","name":null,"width":null,"length":null,"benches":null,"seats":95,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":8,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"108","name":null,"width":null,"length":null,"benches":null,"seats":60,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":9,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"109","name":null,"width":null,"length":null,"benches":null,"seats":90,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":10,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"110","name":null,"width":null,"length":null,"benches":null,"seats":40,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":11,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"111","name":null,"width":null,"length":null,"benches":null,"seats":60,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":12,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"112","name":null,"width":null,"length":null,"benches":null,"seats":80,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":13,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"113","name":null,"width":null,"length":null,"benches":null,"seats":45,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":14,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"114","name":null,"width":null,"length":null,"benches":null,"seats":80,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":15,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"115","name":null,"width":null,"length":null,"benches":null,"seats":50,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"}],"first_page_url":"http:\/\/localhost:8000?page=1","from":1,"last_page":534,"last_page_url":"http:\/\/localhost:8000?page=534","links":[{"url":null,"label":"&amp;laquo; Previous","active":false},{"url":"http:\/\/localhost:8000?page=1","label":"1","active":true},{"url":"http:\/\/localhost:8000?page=2","label":"2","active":false},{"url":"http:\/\/localhost:8000?page=3","label":"3","active":false},{"url":"http:\/\/localhost:8000?page=4","label":"4","active":false},{"url":"http:\/\/localhost:8000?page=5","label":"5","active":false},{"url":"http:\/\/localhost:8000?page=6","label":"6","active":false},{"url":"http:\/\/localhost:8000?page=7","label":"7","active":false},{"url":"http:\/\/localhost:8000?page=8","label":"8","active":false},{"url":"http:\/\/localhost:8000?page=9","label":"9","active":false},{"url":"http:\/\/localhost:8000?page=10","label":"10","active":false},{"url":null,"label":"...","active":false},{"url":"http:\/\/localhost:8000?page=533","label":"533","active":false},{"url":"http:\/\/localhost:8000?page=534","label":"534","active":false},{"url":"http:\/\/localhost:8000?page=2","label":"Next &amp;raquo;","active":false}],"next_page_url":"http:\/\/localhost:8000?page=2","path":"http:\/\/localhost:8000","per_page":15,"prev_page_url":null,"to":15,"total":8000}]]</t>
   </si>
 </sst>
 </file>
@@ -355,16 +355,187 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="43.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
         <v>0</v>
       </c>
     </row>

--- a/public/hello.xlsx
+++ b/public/hello.xlsx
@@ -1,38 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="600" yWindow="570" windowWidth="14055" windowHeight="4050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>[1,2,3,[1,2,{"current_page":1,"data":[{"id":1,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"101","name":null,"width":null,"length":null,"benches":null,"seats":100,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":2,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"102","name":null,"width":null,"length":null,"benches":null,"seats":35,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":3,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"103","name":null,"width":null,"length":null,"benches":null,"seats":25,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":4,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"104","name":null,"width":null,"length":null,"benches":null,"seats":75,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":5,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"105","name":null,"width":null,"length":null,"benches":null,"seats":60,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":6,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"106","name":null,"width":null,"length":null,"benches":null,"seats":40,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":7,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"107","name":null,"width":null,"length":null,"benches":null,"seats":95,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":8,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"108","name":null,"width":null,"length":null,"benches":null,"seats":60,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":9,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"109","name":null,"width":null,"length":null,"benches":null,"seats":90,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":10,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"110","name":null,"width":null,"length":null,"benches":null,"seats":40,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":11,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"111","name":null,"width":null,"length":null,"benches":null,"seats":60,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":12,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"112","name":null,"width":null,"length":null,"benches":null,"seats":80,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":13,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"113","name":null,"width":null,"length":null,"benches":null,"seats":45,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":14,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"114","name":null,"width":null,"length":null,"benches":null,"seats":80,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":15,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"115","name":null,"width":null,"length":null,"benches":null,"seats":50,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"}],"first_page_url":"http:\/\/localhost:8000?page=1","from":1,"last_page":534,"last_page_url":"http:\/\/localhost:8000?page=534","links":[{"url":null,"label":"&amp;laquo; Previous","active":false},{"url":"http:\/\/localhost:8000?page=1","label":"1","active":true},{"url":"http:\/\/localhost:8000?page=2","label":"2","active":false},{"url":"http:\/\/localhost:8000?page=3","label":"3","active":false},{"url":"http:\/\/localhost:8000?page=4","label":"4","active":false},{"url":"http:\/\/localhost:8000?page=5","label":"5","active":false},{"url":"http:\/\/localhost:8000?page=6","label":"6","active":false},{"url":"http:\/\/localhost:8000?page=7","label":"7","active":false},{"url":"http:\/\/localhost:8000?page=8","label":"8","active":false},{"url":"http:\/\/localhost:8000?page=9","label":"9","active":false},{"url":"http:\/\/localhost:8000?page=10","label":"10","active":false},{"url":null,"label":"...","active":false},{"url":"http:\/\/localhost:8000?page=533","label":"533","active":false},{"url":"http:\/\/localhost:8000?page=534","label":"534","active":false},{"url":"http:\/\/localhost:8000?page=2","label":"Next &amp;raquo;","active":false}],"next_page_url":"http:\/\/localhost:8000?page=2","path":"http:\/\/localhost:8000","per_page":15,"prev_page_url":null,"to":15,"total":8000}]]</t>
+  </si>
+  <si>
+    <t>23qr</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>wqe</t>
+  </si>
+  <si>
+    <t>qwer</t>
+  </si>
+  <si>
+    <t>wqer</t>
+  </si>
+  <si>
+    <t>wq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -47,21 +65,25 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -351,43 +373,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="43.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>3</v>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -397,8 +413,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -408,8 +424,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -419,8 +435,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="s">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -441,8 +457,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
-        <v>1</v>
+      <c r="A9" t="s">
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -540,76 +556,33 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/hello.xlsx
+++ b/public/hello.xlsx
@@ -4,45 +4,151 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="570" windowWidth="14055" windowHeight="4050"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="hello2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>[1,2,3,[1,2,{"current_page":1,"data":[{"id":1,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"101","name":null,"width":null,"length":null,"benches":null,"seats":100,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":2,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"102","name":null,"width":null,"length":null,"benches":null,"seats":35,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":3,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"103","name":null,"width":null,"length":null,"benches":null,"seats":25,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":4,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"104","name":null,"width":null,"length":null,"benches":null,"seats":75,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":5,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"105","name":null,"width":null,"length":null,"benches":null,"seats":60,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":6,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"106","name":null,"width":null,"length":null,"benches":null,"seats":40,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":7,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"107","name":null,"width":null,"length":null,"benches":null,"seats":95,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":8,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"108","name":null,"width":null,"length":null,"benches":null,"seats":60,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":9,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"109","name":null,"width":null,"length":null,"benches":null,"seats":90,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":10,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"110","name":null,"width":null,"length":null,"benches":null,"seats":40,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":11,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"111","name":null,"width":null,"length":null,"benches":null,"seats":60,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":12,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"112","name":null,"width":null,"length":null,"benches":null,"seats":80,"ready":"0","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":13,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"113","name":null,"width":null,"length":null,"benches":null,"seats":45,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":14,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"114","name":null,"width":null,"length":null,"benches":null,"seats":80,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"},{"id":15,"branch_id":1,"building_id":1,"floor_no":1,"room_number":"115","name":null,"width":null,"length":null,"benches":null,"seats":50,"ready":"1","created_at":"2022-11-28T03:54:40.000000Z","updated_at":"2022-11-28T03:54:40.000000Z"}],"first_page_url":"http:\/\/localhost:8000?page=1","from":1,"last_page":534,"last_page_url":"http:\/\/localhost:8000?page=534","links":[{"url":null,"label":"&amp;laquo; Previous","active":false},{"url":"http:\/\/localhost:8000?page=1","label":"1","active":true},{"url":"http:\/\/localhost:8000?page=2","label":"2","active":false},{"url":"http:\/\/localhost:8000?page=3","label":"3","active":false},{"url":"http:\/\/localhost:8000?page=4","label":"4","active":false},{"url":"http:\/\/localhost:8000?page=5","label":"5","active":false},{"url":"http:\/\/localhost:8000?page=6","label":"6","active":false},{"url":"http:\/\/localhost:8000?page=7","label":"7","active":false},{"url":"http:\/\/localhost:8000?page=8","label":"8","active":false},{"url":"http:\/\/localhost:8000?page=9","label":"9","active":false},{"url":"http:\/\/localhost:8000?page=10","label":"10","active":false},{"url":null,"label":"...","active":false},{"url":"http:\/\/localhost:8000?page=533","label":"533","active":false},{"url":"http:\/\/localhost:8000?page=534","label":"534","active":false},{"url":"http:\/\/localhost:8000?page=2","label":"Next &amp;raquo;","active":false}],"next_page_url":"http:\/\/localhost:8000?page=2","path":"http:\/\/localhost:8000","per_page":15,"prev_page_url":null,"to":15,"total":8000}]]</t>
-  </si>
-  <si>
-    <t>23qr</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>wqe</t>
-  </si>
-  <si>
-    <t>qwer</t>
-  </si>
-  <si>
-    <t>wqer</t>
-  </si>
-  <si>
-    <t>wq</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>Person A</t>
+  </si>
+  <si>
+    <t>27/2/1970</t>
+  </si>
+  <si>
+    <t>Person B</t>
+  </si>
+  <si>
+    <t>28/2/1975</t>
+  </si>
+  <si>
+    <t>Person C</t>
+  </si>
+  <si>
+    <t>27/2/1971</t>
+  </si>
+  <si>
+    <t>Person D</t>
+  </si>
+  <si>
+    <t>28/2/1976</t>
+  </si>
+  <si>
+    <t>Person E</t>
+  </si>
+  <si>
+    <t>27/2/1972</t>
+  </si>
+  <si>
+    <t>Person F</t>
+  </si>
+  <si>
+    <t>28/2/1977</t>
+  </si>
+  <si>
+    <t>Person G</t>
+  </si>
+  <si>
+    <t>27/2/1973</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>dsg</t>
+  </si>
+  <si>
+    <t>gdsgds</t>
+  </si>
+  <si>
+    <t>gdsfg</t>
+  </si>
+  <si>
+    <t>dfgds</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>forth</t>
+  </si>
+  <si>
+    <t>fifth</t>
+  </si>
+  <si>
+    <t>sixth</t>
+  </si>
+  <si>
+    <t>seventh</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>firdfasfsast</t>
   </si>
 </sst>
 </file>
@@ -76,8 +182,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,215 +489,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="11.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>24512</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24561</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C5" s="1">
+        <v>24610</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24659</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24708</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24757</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>24806</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="6">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>